--- a/Clase08-07MAR2025/Libro1.xlsx
+++ b/Clase08-07MAR2025/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-SQL1-67489\Clase08-07MAR2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD92552F-5D80-4CFA-BF53-899ED800CD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612C7A4-87DE-4EAF-85DE-F81547DCFA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{5949F71F-D8AC-4BC5-A5E1-9A90134B4AFC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
   <si>
     <t>ProductName</t>
   </si>
@@ -2578,18 +2578,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A149CD-56F4-4484-9330-3A89883F51B9}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -2599,8 +2600,17 @@
       <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2610,8 +2620,17 @@
       <c r="C2">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>527</v>
+      </c>
+      <c r="G2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2621,8 +2640,17 @@
       <c r="C3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>190</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2632,8 +2660,17 @@
       <c r="C4">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>596</v>
+      </c>
+      <c r="G4">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2643,8 +2680,17 @@
       <c r="C5">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>665</v>
+      </c>
+      <c r="G5">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2654,8 +2700,17 @@
       <c r="C6">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>282</v>
+      </c>
+      <c r="G6">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2665,8 +2720,17 @@
       <c r="C7">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>304</v>
+      </c>
+      <c r="G7">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2676,8 +2740,17 @@
       <c r="C8">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>435</v>
+      </c>
+      <c r="G8">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2687,8 +2760,17 @@
       <c r="C9">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>283</v>
+      </c>
+      <c r="G9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2698,8 +2780,17 @@
       <c r="C10">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>264</v>
+      </c>
+      <c r="G10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2709,8 +2800,17 @@
       <c r="C11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2720,8 +2820,17 @@
       <c r="C12">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2731,8 +2840,17 @@
       <c r="C13">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>223</v>
+      </c>
+      <c r="G13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2742,8 +2860,17 @@
       <c r="C14">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>177</v>
+      </c>
+      <c r="G14">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2753,8 +2880,17 @@
       <c r="C15">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>313</v>
+      </c>
+      <c r="G15">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2764,8 +2900,17 @@
       <c r="C16">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>454</v>
+      </c>
+      <c r="G16">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2775,8 +2920,17 @@
       <c r="C17">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>356</v>
+      </c>
+      <c r="G17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2786,8 +2940,17 @@
       <c r="C18">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>97</v>
+      </c>
+      <c r="G18">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2797,8 +2960,17 @@
       <c r="C19">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>971</v>
+      </c>
+      <c r="G19">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2808,8 +2980,17 @@
       <c r="C20">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>656</v>
+      </c>
+      <c r="G20">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2819,8 +3000,17 @@
       <c r="C21">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2830,8 +3020,17 @@
       <c r="C22">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2841,8 +3040,17 @@
       <c r="C23">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>421</v>
+      </c>
+      <c r="G23">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2852,8 +3060,17 @@
       <c r="C24">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>430</v>
+      </c>
+      <c r="G24">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2863,8 +3080,17 @@
       <c r="C25">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>396</v>
+      </c>
+      <c r="G25">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2874,8 +3100,17 @@
       <c r="C26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>382</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2885,8 +3120,17 @@
       <c r="C27">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>209</v>
+      </c>
+      <c r="G27">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2896,8 +3140,17 @@
       <c r="C28">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>346</v>
+      </c>
+      <c r="G28">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2907,8 +3160,17 @@
       <c r="C29">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>378</v>
+      </c>
+      <c r="G29">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2918,8 +3180,17 @@
       <c r="C30">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>258</v>
+      </c>
+      <c r="G30">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2929,8 +3200,17 @@
       <c r="C31">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>549</v>
+      </c>
+      <c r="G31">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2940,8 +3220,17 @@
       <c r="C32">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>142</v>
+      </c>
+      <c r="G32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2951,8 +3240,17 @@
       <c r="C33">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>447</v>
+      </c>
+      <c r="G33">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2962,8 +3260,17 @@
       <c r="C34">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>65</v>
+      </c>
+      <c r="G34">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2973,8 +3280,17 @@
       <c r="C35">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>116</v>
+      </c>
+      <c r="G35">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2984,8 +3300,17 @@
       <c r="C36">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>490</v>
+      </c>
+      <c r="G36">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2995,8 +3320,17 @@
       <c r="C37">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>208</v>
+      </c>
+      <c r="G37">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3006,8 +3340,17 @@
       <c r="C38">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38">
+        <v>501</v>
+      </c>
+      <c r="G38">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -3017,8 +3360,17 @@
       <c r="C39">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3028,8 +3380,17 @@
       <c r="C40">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>183</v>
+      </c>
+      <c r="G40">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3039,8 +3400,17 @@
       <c r="C41">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3050,8 +3420,17 @@
       <c r="C42">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>353</v>
+      </c>
+      <c r="G42">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -3061,8 +3440,17 @@
       <c r="C43">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>264</v>
+      </c>
+      <c r="G43">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -3072,8 +3460,17 @@
       <c r="C44">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44">
+        <v>114</v>
+      </c>
+      <c r="G44">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3083,8 +3480,17 @@
       <c r="C45">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>152</v>
+      </c>
+      <c r="G45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3094,8 +3500,17 @@
       <c r="C46">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>432</v>
+      </c>
+      <c r="G46">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3105,8 +3520,17 @@
       <c r="C47">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>413</v>
+      </c>
+      <c r="G47">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3116,8 +3540,17 @@
       <c r="C48">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>419</v>
+      </c>
+      <c r="G48">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3127,8 +3560,17 @@
       <c r="C49">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49">
+        <v>571</v>
+      </c>
+      <c r="G49">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3138,8 +3580,17 @@
       <c r="C50">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50">
+        <v>352</v>
+      </c>
+      <c r="G50">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3149,8 +3600,17 @@
       <c r="C51">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51">
+        <v>374</v>
+      </c>
+      <c r="G51">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3160,8 +3620,17 @@
       <c r="C52">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>236</v>
+      </c>
+      <c r="G52">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3171,8 +3640,17 @@
       <c r="C53">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <v>752</v>
+      </c>
+      <c r="G53">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3182,8 +3660,17 @@
       <c r="C54">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54">
+        <v>124</v>
+      </c>
+      <c r="G54">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3193,8 +3680,17 @@
       <c r="C55">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55">
+        <v>630</v>
+      </c>
+      <c r="G55">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3204,8 +3700,17 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>256</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3215,8 +3720,17 @@
       <c r="C57">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>392</v>
+      </c>
+      <c r="G57">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3226,8 +3740,17 @@
       <c r="C58">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>344</v>
+      </c>
+      <c r="G58">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3237,8 +3760,17 @@
       <c r="C59">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>171</v>
+      </c>
+      <c r="G59">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3248,8 +3780,17 @@
       <c r="C60">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60">
+        <v>260</v>
+      </c>
+      <c r="G60">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3259,8 +3800,17 @@
       <c r="C61">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61">
+        <v>385</v>
+      </c>
+      <c r="G61">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3270,8 +3820,17 @@
       <c r="C62">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62">
+        <v>451</v>
+      </c>
+      <c r="G62">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3281,8 +3840,17 @@
       <c r="C63">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63">
+        <v>96</v>
+      </c>
+      <c r="G63">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3292,8 +3860,17 @@
       <c r="C64">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64">
+        <v>610</v>
+      </c>
+      <c r="G64">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3303,8 +3880,17 @@
       <c r="C65">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65">
+        <v>396</v>
+      </c>
+      <c r="G65">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3314,8 +3900,17 @@
       <c r="C66">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66">
+        <v>269</v>
+      </c>
+      <c r="G66">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3325,8 +3920,17 @@
       <c r="C67">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <v>346</v>
+      </c>
+      <c r="G67">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3336,8 +3940,17 @@
       <c r="C68">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <v>482</v>
+      </c>
+      <c r="G68">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3347,8 +3960,17 @@
       <c r="C69">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69">
+        <v>377</v>
+      </c>
+      <c r="G69">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3358,8 +3980,17 @@
       <c r="C70">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70">
+        <v>305</v>
+      </c>
+      <c r="G70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3369,8 +4000,17 @@
       <c r="C71">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <v>298</v>
+      </c>
+      <c r="G71">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +4020,17 @@
       <c r="C72">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <v>494</v>
+      </c>
+      <c r="G72">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3391,8 +4040,17 @@
       <c r="C73">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73">
+        <v>287</v>
+      </c>
+      <c r="G73">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3402,8 +4060,17 @@
       <c r="C74">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74">
+        <v>324</v>
+      </c>
+      <c r="G74">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3413,8 +4080,17 @@
       <c r="C75">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75">
+        <v>150</v>
+      </c>
+      <c r="G75">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3424,8 +4100,17 @@
       <c r="C76">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76">
+        <v>189</v>
+      </c>
+      <c r="G76">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3435,8 +4120,17 @@
       <c r="C77">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>281</v>
+      </c>
+      <c r="G77">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3446,8 +4140,17 @@
       <c r="C78">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78">
+        <v>359</v>
+      </c>
+      <c r="G78">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <f>SUM(B2:B78)</f>
